--- a/week5/output.xlsx
+++ b/week5/output.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1125" yWindow="1125" windowWidth="17910" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -22,7 +22,7 @@
       <charset val="129"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,10 +55,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -439,10 +440,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="9.5" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -488,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>20140001</v>
+        <v>20190001</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
@@ -513,7 +517,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>20140002</v>
+        <v>20190002</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
@@ -538,7 +542,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>20140003</v>
+        <v>20190003</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
@@ -563,11 +567,11 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>20140004</v>
+        <v>20190004</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Olivia</t>
+          <t>Olvia</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
@@ -588,11 +592,11 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>20140005</v>
+        <v>20190005</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Amelia</t>
+          <t>Amela</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
@@ -613,7 +617,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>20140006</v>
+        <v>20190006</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -638,7 +642,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>20140007</v>
+        <v>20190007</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -663,7 +667,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>20140008</v>
+        <v>20190008</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -688,7 +692,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>20140009</v>
+        <v>20190009</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -713,11 +717,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>20140010</v>
+        <v>20190010</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Chloe</t>
+          <t>Chole</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -739,5 +743,6 @@
     <row r="12"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>